--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H2">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I2">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J2">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>2.461217067192</v>
+        <v>0.5710288049333333</v>
       </c>
       <c r="R2">
-        <v>22.150953604728</v>
+        <v>5.1392592444</v>
       </c>
       <c r="S2">
-        <v>0.05433216715089719</v>
+        <v>0.01569771122216809</v>
       </c>
       <c r="T2">
-        <v>0.0543321671508972</v>
+        <v>0.01569771122216808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H3">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I3">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J3">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>4.178301584379</v>
+        <v>5.440256192813333</v>
       </c>
       <c r="R3">
-        <v>37.604714259411</v>
+        <v>48.96230573532</v>
       </c>
       <c r="S3">
-        <v>0.09223736626706433</v>
+        <v>0.1495538753064577</v>
       </c>
       <c r="T3">
-        <v>0.09223736626706434</v>
+        <v>0.1495538753064577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H4">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I4">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J4">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>1.79729240847</v>
+        <v>2.340120969733333</v>
       </c>
       <c r="R4">
-        <v>16.17563167623</v>
+        <v>21.0610887276</v>
       </c>
       <c r="S4">
-        <v>0.03967581440000346</v>
+        <v>0.0643304556450572</v>
       </c>
       <c r="T4">
-        <v>0.03967581440000346</v>
+        <v>0.06433045564505718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.52901</v>
       </c>
       <c r="I5">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J5">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>10.75370129736</v>
+        <v>1.9162249869</v>
       </c>
       <c r="R5">
-        <v>96.78331167624</v>
+        <v>17.2460248821</v>
       </c>
       <c r="S5">
-        <v>0.2373914532640466</v>
+        <v>0.0526774590374138</v>
       </c>
       <c r="T5">
-        <v>0.2373914532640466</v>
+        <v>0.0526774590374138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.52901</v>
       </c>
       <c r="I6">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J6">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>18.25609279557</v>
@@ -818,10 +818,10 @@
         <v>164.30483516013</v>
       </c>
       <c r="S6">
-        <v>0.4030091853795118</v>
+        <v>0.501864127123007</v>
       </c>
       <c r="T6">
-        <v>0.4030091853795119</v>
+        <v>0.501864127123007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.52901</v>
       </c>
       <c r="I7">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J7">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>7.852840760099999</v>
@@ -880,10 +880,10 @@
         <v>70.6755668409</v>
       </c>
       <c r="S7">
-        <v>0.1733540135384766</v>
+        <v>0.2158763716658961</v>
       </c>
       <c r="T7">
-        <v>0.1733540135384767</v>
+        <v>0.2158763716658961</v>
       </c>
     </row>
   </sheetData>
